--- a/outlines/COMP 1601.xlsx
+++ b/outlines/COMP 1601.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25027"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37977592-B160-42B8-8111-60BC0F44B56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C2E4A72-B904-47CD-A38F-5B3B44D8B17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="ACM Mapped Topics" sheetId="1" r:id="rId1"/>
     <sheet name="Current Course Outline Content" sheetId="2" r:id="rId2"/>
     <sheet name="Revised Course Outline Template" sheetId="3" r:id="rId3"/>
+    <sheet name="Backup" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="211">
   <si>
     <t>tier</t>
   </si>
@@ -256,10 +257,13 @@
     <t xml:space="preserve">Mode of Delivery: </t>
   </si>
   <si>
-    <t>Face-to-Face ❑      Blended ❑      Online ❑</t>
+    <t>Face-to-Face ☐     Blended ☑     Online ☐</t>
   </si>
   <si>
     <t>1. Course Description</t>
+  </si>
+  <si>
+    <t>This course uses an appropriate, contemporary programming language as a tool to teach fundamental programming concepts, topics and techniques. The main concepts covered are sequence, selection and repetition logic, character and string manipulation, functions, and a basic introduction to arrays and their applications.</t>
   </si>
   <si>
     <t>←UPDATE &amp; 
@@ -290,10 +294,16 @@
     <t>2. Rationale</t>
   </si>
   <si>
+    <t>This course equips first year undergraduate students with the skills to solve problems on computer based systems. It identifies what type of problems can be solved by such systems and which cannot.  The focus in this course is problem description, definition and presentation using either flowcharting or pseudocode tools. By guiding students towards developing structured algorithms using well known methods and techniques, the course lays the foundation for building competency in programming.</t>
+  </si>
+  <si>
     <t>Tips: Include Which students will be taking this course? Why would students need or want to take this course? How will students benefit? How does this course fit into the greater curriculum? Does this course impact students beyond one particular major? (context)</t>
   </si>
   <si>
     <t>3. Course Aims</t>
+  </si>
+  <si>
+    <t>This course aims to provide an introduction to programming. The course teaches students how to implement algorithmic solutions for common problems and tasks. Students are exposed to a contemporary programming language and learn how to write, test and debug programs.</t>
   </si>
   <si>
     <t>← FILL IN  &amp; 
@@ -346,10 +356,7 @@
     <t>Analyse and explain the behaviour of simple programs involving the fundamental programming constructs variables, expressions, assignments, I/O, control constructs, functions, parameter passing, and recursion.</t>
   </si>
   <si>
-    <t>Identify and describe uses of primitive data types.</t>
-  </si>
-  <si>
-    <t>Write programs that use primitive data types.</t>
+    <t>Identify, describe and write programs that use primitive data types.</t>
   </si>
   <si>
     <t>Modify and expand short programs that use standard conditional and iterative control structures and functions.</t>
@@ -546,43 +553,40 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>Assingment 1</t>
+    <t>Assignment 1</t>
   </si>
   <si>
     <t>1, 2, 3</t>
   </si>
   <si>
-    <t>Take home problems</t>
-  </si>
-  <si>
-    <t>10 days</t>
-  </si>
-  <si>
-    <t>Assingment 2</t>
+    <t>Take home programming problems</t>
+  </si>
+  <si>
+    <t>10-14 days</t>
+  </si>
+  <si>
+    <t>Assignment 2</t>
   </si>
   <si>
     <t>3, 4, 5, 7, 8, 11</t>
   </si>
   <si>
-    <t xml:space="preserve">Assingment 3 </t>
+    <t xml:space="preserve">Assignment 3 </t>
   </si>
   <si>
     <t>5, 8, 9, 10, 11</t>
   </si>
   <si>
-    <t xml:space="preserve">10 days </t>
-  </si>
-  <si>
     <t xml:space="preserve">Quiz 1 </t>
   </si>
   <si>
     <t>1, 2, 3, 4, 5</t>
   </si>
   <si>
-    <t>Online quiz, multiple choice</t>
-  </si>
-  <si>
-    <t>30 min</t>
+    <t>Online quiz, MCQ</t>
+  </si>
+  <si>
+    <t>15-30 min</t>
   </si>
   <si>
     <t>Quiz 2</t>
@@ -609,13 +613,13 @@
     <t>Coursework Exam 2</t>
   </si>
   <si>
-    <t>3, 4, 5, 6, 7, 8, 9, 10 11</t>
+    <t>3, 4, 5, 6, 7, 8, 9, 10 11, 12</t>
   </si>
   <si>
     <t>Final Examinaiton</t>
   </si>
   <si>
-    <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10 11</t>
+    <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10 11, 12</t>
   </si>
   <si>
     <t>10. Readings/Learning Resources (Online and Print)</t>
@@ -701,9 +705,6 @@
     <t>2, 3</t>
   </si>
   <si>
-    <t>Assignment 1</t>
-  </si>
-  <si>
     <t>WK2</t>
   </si>
   <si>
@@ -722,18 +723,12 @@
     <t>C Programming - A Beginner's Course: Chapter 3</t>
   </si>
   <si>
-    <t>Assignment 2</t>
-  </si>
-  <si>
     <t>WK6</t>
   </si>
   <si>
     <t>C Programming - A Beginner's Course: Chapter 6</t>
   </si>
   <si>
-    <t>CWE1, 9</t>
-  </si>
-  <si>
     <t>C Programming - A Beginner's Course: Chapter 7</t>
   </si>
   <si>
@@ -756,12 +751,6 @@
   </si>
   <si>
     <t>WK11</t>
-  </si>
-  <si>
-    <t>11, CWE2</t>
-  </si>
-  <si>
-    <t>Crousework Exam 2</t>
   </si>
   <si>
     <t>WK12</t>
@@ -769,6 +758,21 @@
   <si>
     <t>Course Review
  (No introduction of new subject matter)</t>
+  </si>
+  <si>
+    <t>Identify and describe uses of primitive data types.</t>
+  </si>
+  <si>
+    <t>Write programs that use primitive data types.</t>
+  </si>
+  <si>
+    <t>3, 4, 5, 6, 7, 8, 9, 10 11, 12, 13</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10 11, 12, 13</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -2612,8 +2616,8 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2814,8 +2818,8 @@
   </sheetPr>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2980,71 +2984,71 @@
       <c r="A14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="14" t="str">
-        <f>'Current Course Outline Content'!B12</f>
-        <v>This course uses an appropriate programming language as a tool to teach fundamental programming concepts. The main concepts covered are sequence, selection and repetition logic, character and string manipulation, functions, and a basic introduction to arrays and their applications.</v>
+      <c r="B14" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" ht="135" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="14" t="str">
-        <f>'Current Course Outline Content'!B13</f>
-        <v>This course equips students to solve problems on computer based systems. It identifies what type of problems can be solved by such systems and which cannot. It guides students on methods of developing structured algorithms. The focus on this course is problem description and presentation using either flowcharting or pseudocode tools. The selected programming language is used as a vehicle to show the basics of programming algorithms.</v>
+        <v>67</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="78" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="C16" s="17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D16" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="61" t="s">
         <v>72</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>69</v>
       </c>
       <c r="D17" s="64" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F17" s="9"/>
     </row>
@@ -3053,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C18" s="65"/>
       <c r="D18" s="65"/>
@@ -3065,7 +3069,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="65"/>
@@ -3077,7 +3081,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="65"/>
@@ -3089,7 +3093,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C21" s="65"/>
       <c r="D21" s="65"/>
@@ -3101,7 +3105,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C22" s="65"/>
       <c r="D22" s="65"/>
@@ -3113,7 +3117,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="65"/>
@@ -3125,7 +3129,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="65"/>
@@ -3137,7 +3141,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="54" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="65"/>
@@ -3149,7 +3153,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C26" s="65"/>
       <c r="D26" s="65"/>
@@ -3161,7 +3165,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
@@ -3173,7 +3177,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="54" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="65"/>
@@ -3185,7 +3189,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="65"/>
@@ -3193,35 +3197,30 @@
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
-      <c r="A30" s="14">
-        <v>13</v>
-      </c>
-      <c r="B30" s="54" t="s">
-        <v>86</v>
-      </c>
+      <c r="A30" s="14"/>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" ht="165">
       <c r="A31" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D31" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1">
       <c r="A32" s="59" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B32" s="65"/>
       <c r="C32" s="65"/>
@@ -3233,23 +3232,23 @@
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D33" s="64" t="b">
         <v>1</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="21"/>
       <c r="B34" s="22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D34" s="65"/>
       <c r="E34" s="23"/>
@@ -3258,100 +3257,100 @@
     <row r="35" spans="1:6" ht="30.75" customHeight="1">
       <c r="A35" s="21"/>
       <c r="B35" s="18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D35" s="65"/>
       <c r="E35" s="19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" ht="28.5" customHeight="1">
       <c r="A36" s="21"/>
       <c r="B36" s="18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D36" s="65"/>
       <c r="E36" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6" ht="32.25" customHeight="1">
       <c r="A37" s="21"/>
       <c r="B37" s="18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C37" s="24"/>
       <c r="D37" s="65"/>
       <c r="E37" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6" ht="33.75" customHeight="1">
       <c r="A38" s="21"/>
       <c r="B38" s="53" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D38" s="65"/>
       <c r="E38" s="19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" ht="33" customHeight="1">
       <c r="A39" s="21"/>
       <c r="B39" s="53" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D39" s="65"/>
       <c r="E39" s="19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" ht="28.5">
       <c r="A40" s="21"/>
       <c r="B40" s="53" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D40" s="65"/>
       <c r="E40" s="19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="21"/>
       <c r="B41" s="18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="65"/>
       <c r="E41" s="19" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1">
       <c r="A42" s="59" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B42" s="65"/>
       <c r="C42" s="65"/>
@@ -3370,64 +3369,64 @@
     <row r="44" spans="1:6">
       <c r="A44" s="21"/>
       <c r="B44" s="22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1">
       <c r="A45" s="21"/>
       <c r="B45" s="18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C45" s="26">
         <v>13</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F45" s="8"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="21"/>
       <c r="B46" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C46" s="26">
         <v>13</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1">
       <c r="A47" s="21"/>
       <c r="B47" s="29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C47" s="30">
         <v>13</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F47" s="8"/>
     </row>
@@ -3441,7 +3440,7 @@
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B49" s="9"/>
       <c r="D49" s="9"/>
@@ -3451,16 +3450,16 @@
     <row r="50" spans="1:6" ht="47.25" customHeight="1">
       <c r="A50" s="21"/>
       <c r="B50" s="24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D50" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F50" s="8"/>
     </row>
@@ -3474,7 +3473,7 @@
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1">
       <c r="A52" s="59" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B52" s="65"/>
       <c r="C52" s="65"/>
@@ -3484,19 +3483,19 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F53" s="9" t="b">
         <v>1</v>
@@ -3504,181 +3503,181 @@
     </row>
     <row r="54" spans="1:6" ht="29.25" customHeight="1">
       <c r="A54" s="33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F54" s="36"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1">
       <c r="A55" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D55" s="37">
         <v>5</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F55" s="36"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1">
       <c r="A56" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="37" t="s">
         <v>142</v>
-      </c>
-      <c r="B56" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>140</v>
       </c>
       <c r="D56" s="37">
         <v>6</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F56" s="36"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1">
       <c r="A57" s="26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D57" s="37">
         <v>6</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F57" s="36"/>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1">
       <c r="A58" s="26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D58" s="37">
         <v>1</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F58" s="36"/>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1">
       <c r="A59" s="26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B59" s="58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D59" s="37">
         <v>1</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F59" s="36"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1">
       <c r="A60" s="26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D60" s="37">
         <v>1</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F60" s="36"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1">
       <c r="A61" s="26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D61" s="37">
         <v>10</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F61" s="36"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1">
       <c r="A62" s="26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D62" s="37">
         <v>20</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F62" s="36"/>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1">
       <c r="A63" s="26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D63">
         <v>50</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F63" s="36"/>
     </row>
@@ -3700,7 +3699,7 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1">
       <c r="A66" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -3710,23 +3709,23 @@
     </row>
     <row r="67" spans="1:6" ht="12.75" customHeight="1">
       <c r="A67" s="41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B67" s="42"/>
       <c r="C67" s="61" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D67" s="64" t="b">
         <v>1</v>
       </c>
       <c r="E67" s="62" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F67" s="36"/>
     </row>
     <row r="68" spans="1:6" ht="19.5" customHeight="1">
       <c r="A68" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B68" s="44"/>
       <c r="C68" s="65"/>
@@ -3751,11 +3750,11 @@
     </row>
     <row r="71" spans="1:6" ht="18" customHeight="1">
       <c r="A71" s="47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B71" s="44"/>
       <c r="C71" s="61" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D71" s="64" t="b">
         <v>1</v>
@@ -3789,11 +3788,11 @@
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1">
       <c r="A75" s="47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B75" s="48"/>
       <c r="C75" s="61" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D75" s="64" t="b">
         <v>1</v>
@@ -3819,13 +3818,13 @@
     </row>
     <row r="78" spans="1:6" ht="14.25" customHeight="1">
       <c r="A78" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C78" s="50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D78" s="9" t="b">
         <v>1</v>
@@ -3835,7 +3834,7 @@
     </row>
     <row r="79" spans="1:6" ht="14.25" customHeight="1">
       <c r="A79" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="36"/>
@@ -3853,7 +3852,7 @@
     </row>
     <row r="81" spans="1:6" ht="14.25" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B81" s="36"/>
       <c r="C81" s="36"/>
@@ -3864,39 +3863,39 @@
     <row r="82" spans="1:6">
       <c r="A82" s="6"/>
       <c r="B82" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="26.25" customHeight="1">
       <c r="A83" s="33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E83" s="33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F83" s="33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1">
@@ -3904,13 +3903,13 @@
         <v>1</v>
       </c>
       <c r="B84" s="56" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C84" s="51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D84" s="51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E84" s="52"/>
       <c r="F84" s="51"/>
@@ -3920,16 +3919,16 @@
         <v>2</v>
       </c>
       <c r="B85" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="D85" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="C85" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="D85" s="51" t="s">
-        <v>185</v>
-      </c>
       <c r="E85" s="52" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="F85" s="51" t="s">
         <v>188</v>
@@ -3946,7 +3945,7 @@
         <v>189</v>
       </c>
       <c r="D86" s="51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E86" s="52"/>
       <c r="F86" s="51"/>
@@ -3962,7 +3961,7 @@
         <v>190</v>
       </c>
       <c r="D87" s="51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E87" s="52" t="s">
         <v>191</v>
@@ -3982,8 +3981,9 @@
         <v>189</v>
       </c>
       <c r="D88" s="51" t="s">
-        <v>185</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E88" s="52"/>
       <c r="F88" s="51"/>
     </row>
     <row r="89" spans="1:6" ht="15" customHeight="1">
@@ -3997,13 +3997,13 @@
         <v>193</v>
       </c>
       <c r="D89" s="51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E89" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F89" s="51" t="s">
         <v>194</v>
-      </c>
-      <c r="F89" s="51" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1">
@@ -4014,10 +4014,10 @@
         <v>8</v>
       </c>
       <c r="C90" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D90" s="51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E90" s="52"/>
       <c r="F90" s="51"/>
@@ -4026,20 +4026,20 @@
       <c r="A91" s="26">
         <v>8</v>
       </c>
-      <c r="B91" s="56" t="s">
+      <c r="B91" s="56">
+        <v>9</v>
+      </c>
+      <c r="C91" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="D91" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E91" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="F91" s="51" t="s">
         <v>197</v>
-      </c>
-      <c r="C91" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="D91" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="E91" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="F91" s="51" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1">
@@ -4050,16 +4050,16 @@
         <v>9</v>
       </c>
       <c r="C92" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="D92" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E92" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="F92" s="51" t="s">
         <v>198</v>
-      </c>
-      <c r="D92" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="E92" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="F92" s="51" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15" customHeight="1">
@@ -4070,16 +4070,16 @@
         <v>10</v>
       </c>
       <c r="C93" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D93" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E93" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="F93" s="51" t="s">
         <v>201</v>
-      </c>
-      <c r="D93" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="E93" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="F93" s="51" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1">
@@ -4087,39 +4087,39 @@
         <v>11</v>
       </c>
       <c r="B94" s="56" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C94" s="51" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D94" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="E94" t="s">
-        <v>153</v>
+        <v>186</v>
+      </c>
+      <c r="E94" s="52" t="s">
+        <v>154</v>
       </c>
       <c r="F94" s="51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1">
       <c r="A95" s="26">
         <v>12</v>
       </c>
-      <c r="B95" s="56" t="s">
-        <v>206</v>
+      <c r="B95" s="56">
+        <v>11</v>
       </c>
       <c r="C95" s="51" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D95" s="51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E95" s="52" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="F95" s="51" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1">
@@ -4127,11 +4127,11 @@
         <v>13</v>
       </c>
       <c r="B96" s="57" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C96" s="37"/>
       <c r="D96" s="37"/>
-      <c r="E96" s="38"/>
+      <c r="E96" s="52"/>
       <c r="F96" s="37"/>
     </row>
     <row r="97" spans="1:6" ht="12.75" customHeight="1">
@@ -4168,4 +4168,1376 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6AC0C8-CE4D-4C10-B7BE-9CDBCB5DDED6}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:F97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="67.28515625" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="52.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="8" t="str">
+        <f>'Current Course Outline Content'!B3 &amp; " " &amp; 'Current Course Outline Content'!B2</f>
+        <v>COMP 1601 Computer Programming I</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="8" t="str">
+        <f>"Semester "&amp;'Current Course Outline Content'!B6 &amp;"  Level "&amp; 'Current Course Outline Content'!B5</f>
+        <v>Semester 1  Level 1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="8" t="str">
+        <f>'Current Course Outline Content'!B10</f>
+        <v>None</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f>'Current Course Outline Content'!B4</f>
+        <v>Core</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="8" t="str">
+        <f>'Current Course Outline Content'!B9</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="94.5" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="135" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="78" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1">
+      <c r="A18" s="14">
+        <v>1</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1">
+      <c r="A19" s="14">
+        <v>2</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1">
+      <c r="A20" s="14">
+        <v>3</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1">
+      <c r="A21" s="14">
+        <v>4</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1">
+      <c r="A22" s="14">
+        <v>5</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1">
+      <c r="A23" s="14">
+        <v>6</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1">
+      <c r="A24" s="14">
+        <v>7</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1">
+      <c r="A25" s="14">
+        <v>8</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1">
+      <c r="A26" s="14">
+        <v>9</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1">
+      <c r="A27" s="14">
+        <v>10</v>
+      </c>
+      <c r="B27" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1">
+      <c r="A28" s="14">
+        <v>11</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1">
+      <c r="A29" s="14">
+        <v>12</v>
+      </c>
+      <c r="B29" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1">
+      <c r="A30" s="14">
+        <v>13</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" ht="165">
+      <c r="A31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A32" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="65"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A35" s="21"/>
+      <c r="B35" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="65"/>
+      <c r="E35" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" ht="28.5" customHeight="1">
+      <c r="A36" s="21"/>
+      <c r="B36" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="65"/>
+      <c r="E36" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A37" s="21"/>
+      <c r="B37" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A38" s="21"/>
+      <c r="B38" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="65"/>
+      <c r="E38" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" ht="33" customHeight="1">
+      <c r="A39" s="21"/>
+      <c r="B39" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="65"/>
+      <c r="E39" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" ht="28.5">
+      <c r="A40" s="21"/>
+      <c r="B40" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="65"/>
+      <c r="E40" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" ht="28.5">
+      <c r="A41" s="21"/>
+      <c r="B41" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A42" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1">
+      <c r="A43" s="21"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" ht="28.5">
+      <c r="A44" s="21"/>
+      <c r="B44" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1">
+      <c r="A45" s="21"/>
+      <c r="B45" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="26">
+        <v>13</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="21"/>
+      <c r="B46" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="26">
+        <v>13</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1">
+      <c r="A47" s="21"/>
+      <c r="B47" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="30">
+        <v>13</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1">
+      <c r="A48" s="21"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" ht="47.25" customHeight="1">
+      <c r="A50" s="21"/>
+      <c r="B50" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1">
+      <c r="A51" s="21"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A52" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+    </row>
+    <row r="53" spans="1:6" ht="171">
+      <c r="A53" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A54" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="36"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1">
+      <c r="A55" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" s="37">
+        <v>5</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="36"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1">
+      <c r="A56" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="37">
+        <v>6</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="36"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1">
+      <c r="A57" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="37">
+        <v>6</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="36"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1">
+      <c r="A58" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="37">
+        <v>1</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" s="36"/>
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1">
+      <c r="A59" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" s="37">
+        <v>1</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F59" s="36"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1">
+      <c r="A60" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="37">
+        <v>1</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F60" s="36"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1">
+      <c r="A61" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="37">
+        <v>10</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="F61" s="36"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1">
+      <c r="A62" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="37">
+        <v>20</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="F62" s="36"/>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1">
+      <c r="A63" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63">
+        <v>50</v>
+      </c>
+      <c r="E63" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" s="36"/>
+    </row>
+    <row r="64" spans="1:6" ht="15" customHeight="1">
+      <c r="A64" s="26"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="36"/>
+    </row>
+    <row r="65" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A65" s="39"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="36"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A66" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A67" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="42"/>
+      <c r="C67" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="F67" s="36"/>
+    </row>
+    <row r="68" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A68" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="44"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="36"/>
+    </row>
+    <row r="69" spans="1:6" ht="15" customHeight="1">
+      <c r="A69" s="43"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="36"/>
+    </row>
+    <row r="70" spans="1:6" ht="15" customHeight="1">
+      <c r="A70" s="45"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="36"/>
+    </row>
+    <row r="71" spans="1:6" ht="18" customHeight="1">
+      <c r="A71" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="44"/>
+      <c r="C71" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" s="60"/>
+      <c r="F71" s="36"/>
+    </row>
+    <row r="72" spans="1:6" ht="18" customHeight="1">
+      <c r="A72" s="43"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="36"/>
+    </row>
+    <row r="73" spans="1:6" ht="15" customHeight="1">
+      <c r="A73" s="43"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="36"/>
+    </row>
+    <row r="74" spans="1:6" ht="15" customHeight="1">
+      <c r="A74" s="45"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="36"/>
+    </row>
+    <row r="75" spans="1:6" ht="15" customHeight="1">
+      <c r="A75" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" s="48"/>
+      <c r="C75" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" s="64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" s="60"/>
+      <c r="F75" s="36"/>
+    </row>
+    <row r="76" spans="1:6" ht="15" customHeight="1">
+      <c r="A76" s="43"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="36"/>
+    </row>
+    <row r="77" spans="1:6" ht="15" customHeight="1">
+      <c r="A77" s="45"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="36"/>
+    </row>
+    <row r="78" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A78" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D78" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" s="65"/>
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A79" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A80" s="39"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="36"/>
+    </row>
+    <row r="81" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A81" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="36"/>
+    </row>
+    <row r="82" spans="1:6" ht="171">
+      <c r="A82" s="6"/>
+      <c r="B82" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A83" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E83" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="F83" s="33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" customHeight="1">
+      <c r="A84" s="26">
+        <v>1</v>
+      </c>
+      <c r="B84" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C84" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="D84" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E84" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="F84" s="51"/>
+    </row>
+    <row r="85" spans="1:6" ht="15" customHeight="1">
+      <c r="A85" s="26">
+        <v>2</v>
+      </c>
+      <c r="B85" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="D85" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E85" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="F85" s="51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15" customHeight="1">
+      <c r="A86" s="26">
+        <v>3</v>
+      </c>
+      <c r="B86" s="56">
+        <v>4</v>
+      </c>
+      <c r="C86" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="D86" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E86" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="F86" s="51"/>
+    </row>
+    <row r="87" spans="1:6" ht="15" customHeight="1">
+      <c r="A87" s="26">
+        <v>4</v>
+      </c>
+      <c r="B87" s="56">
+        <v>5</v>
+      </c>
+      <c r="C87" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="D87" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E87" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="F87" s="51" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15" customHeight="1">
+      <c r="A88" s="26">
+        <v>5</v>
+      </c>
+      <c r="B88" s="56">
+        <v>6</v>
+      </c>
+      <c r="C88" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="D88" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E88" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="F88" s="51"/>
+    </row>
+    <row r="89" spans="1:6" ht="15" customHeight="1">
+      <c r="A89" s="26">
+        <v>6</v>
+      </c>
+      <c r="B89" s="56">
+        <v>7</v>
+      </c>
+      <c r="C89" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="D89" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F89" s="51" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" customHeight="1">
+      <c r="A90" s="26">
+        <v>7</v>
+      </c>
+      <c r="B90" s="56">
+        <v>8</v>
+      </c>
+      <c r="C90" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D90" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E90" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="F90" s="51"/>
+    </row>
+    <row r="91" spans="1:6" ht="15" customHeight="1">
+      <c r="A91" s="26">
+        <v>8</v>
+      </c>
+      <c r="B91" s="56">
+        <v>9</v>
+      </c>
+      <c r="C91" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="D91" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E91" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="F91" s="51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15" customHeight="1">
+      <c r="A92" s="26">
+        <v>9</v>
+      </c>
+      <c r="B92" s="56">
+        <v>9</v>
+      </c>
+      <c r="C92" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="D92" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E92" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="F92" s="51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" customHeight="1">
+      <c r="A93" s="26">
+        <v>10</v>
+      </c>
+      <c r="B93" s="56">
+        <v>10</v>
+      </c>
+      <c r="C93" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D93" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E93" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="F93" s="51" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" customHeight="1">
+      <c r="A94" s="26">
+        <v>11</v>
+      </c>
+      <c r="B94" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D94" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E94" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="F94" s="51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" customHeight="1">
+      <c r="A95" s="26">
+        <v>12</v>
+      </c>
+      <c r="B95" s="56">
+        <v>11</v>
+      </c>
+      <c r="C95" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D95" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E95" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F95" s="51" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" customHeight="1">
+      <c r="A96" s="26">
+        <v>13</v>
+      </c>
+      <c r="B96" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="F96" s="37"/>
+    </row>
+    <row r="97" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A97" s="39"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="C17:C29"/>
+    <mergeCell ref="D17:D29"/>
+    <mergeCell ref="E17:E29"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="D33:D41"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E14" r:id="rId1" xr:uid="{BA58EB4D-877D-4C17-B9D5-DF02F2492ED7}"/>
+    <hyperlink ref="E16" r:id="rId2" xr:uid="{0FAEF224-698A-4019-9922-26CE805CA487}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
 </file>
--- a/outlines/COMP 1601.xlsx
+++ b/outlines/COMP 1601.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25027"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C2E4A72-B904-47CD-A38F-5B3B44D8B17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{173AA9C3-E6BF-455A-8C6E-B8B4F24272AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
